--- a/automationdemo.maven/testdata/pricetounit.xlsx
+++ b/automationdemo.maven/testdata/pricetounit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshZhuang\git\AutomationFramework\automationdemo.maven\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA29863-F1E4-40DE-8FAA-AB952491E47E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA185D64-AD6F-43B8-92B7-F28D45844191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>5,000</t>
   </si>
   <si>
-    <t>7,500</t>
-  </si>
-  <si>
     <t>10,000</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>NOT FOR SALE!</t>
+  </si>
+  <si>
+    <t>7,333</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -437,31 +437,31 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
